--- a/iPSC_figures_fork/gRNA_knockdown_summary.xlsx
+++ b/iPSC_figures_fork/gRNA_knockdown_summary.xlsx
@@ -423,7 +423,7 @@
         <v>0.5207067166874011</v>
       </c>
       <c r="E3">
-        <v>-0.02021536220615205</v>
+        <v>-0.02021536220615183</v>
       </c>
     </row>
     <row r="4">
@@ -444,7 +444,7 @@
         <v>0.09461180689033445</v>
       </c>
       <c r="E4">
-        <v>-0.2861386790650662</v>
+        <v>-0.2861386790650657</v>
       </c>
     </row>
     <row r="5">
@@ -759,7 +759,7 @@
         <v>0.9300540832630364</v>
       </c>
       <c r="E19">
-        <v>-0.01244944167842332</v>
+        <v>-0.0124494416784231</v>
       </c>
     </row>
     <row r="20">
@@ -1515,7 +1515,7 @@
         <v>0.3621379153645555</v>
       </c>
       <c r="E55">
-        <v>-0.001914248917183725</v>
+        <v>-0.001914248917183503</v>
       </c>
     </row>
     <row r="56">
@@ -1599,7 +1599,7 @@
         <v>0.7846303607952112</v>
       </c>
       <c r="E59">
-        <v>0.006778226568054935</v>
+        <v>0.006778226568055379</v>
       </c>
     </row>
     <row r="60">
@@ -1767,7 +1767,7 @@
         <v>0.9202546588026617</v>
       </c>
       <c r="E67">
-        <v>0.02700377392224373</v>
+        <v>0.02700377392224396</v>
       </c>
     </row>
     <row r="68">
@@ -1809,7 +1809,7 @@
         <v>0.5427911627081341</v>
       </c>
       <c r="E69">
-        <v>-0.09654042746791514</v>
+        <v>-0.09654042746791491</v>
       </c>
     </row>
     <row r="70">
@@ -2061,7 +2061,7 @@
         <v>0.9818739247489903</v>
       </c>
       <c r="E81">
-        <v>0.04992550752223912</v>
+        <v>0.04992550752223957</v>
       </c>
     </row>
     <row r="82">
